--- a/Codelist Excel Files and Conversion Templates to XML/boreholePurpose.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/boreholePurpose.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpeve\Documents\Github\def\Codelist Excel Files and Conversion Templates to XML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB9AA83-EC7D-4E08-A6FC-3683E12CEDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D928CCA8-67F1-4721-9711-1C740A5FBDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="-13035" windowWidth="14400" windowHeight="8355" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11370" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -758,15 +758,9 @@
     <t>BIOR</t>
   </si>
   <si>
-    <t>BR=Bio Retention</t>
-  </si>
-  <si>
     <t>BIOS</t>
   </si>
   <si>
-    <t>BS=Bio Swale</t>
-  </si>
-  <si>
     <t>BR</t>
   </si>
   <si>
@@ -849,6 +843,12 @@
   </si>
   <si>
     <t>//diggs:Borehole/diggs:boreholePurpose</t>
+  </si>
+  <si>
+    <t>Bio Retention</t>
+  </si>
+  <si>
+    <t>Bio Swale</t>
   </si>
 </sst>
 </file>
@@ -1590,16 +1590,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="41.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41.375" customWidth="1"/>
+    <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="5" width="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1625,7 +1625,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>235</v>
       </c>
@@ -1653,24 +1653,24 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="84.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="25.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="84.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2793,1,FALSE)),"Not used","")</f>
         <v/>
@@ -1705,7 +1705,7 @@
         <v>238</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="14" t="s">
@@ -1715,16 +1715,16 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2880,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B3" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
@@ -1734,16 +1734,16 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2807,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
@@ -1753,16 +1753,16 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2889,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="14" t="s">
@@ -1772,16 +1772,16 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2802,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14" t="s">
@@ -1791,16 +1791,16 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2841,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
@@ -1810,16 +1810,16 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B8" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
@@ -1829,16 +1829,16 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2790,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B9" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
@@ -1848,16 +1848,16 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2817,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
@@ -1867,16 +1867,16 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2819,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
@@ -1886,7 +1886,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2845,1,FALSE)),"Not used","")</f>
         <v/>
@@ -1895,7 +1895,7 @@
         <v>233</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14" t="s">
@@ -1905,16 +1905,16 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2846,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B13" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14" t="s">
@@ -1924,16 +1924,16 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2821,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14" t="s">
@@ -1943,16 +1943,16 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2822,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
@@ -1962,16 +1962,16 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B2827,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="14" t="s">
@@ -1981,16 +1981,16 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B2828,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B17" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
@@ -2000,105 +2000,105 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="19"/>
       <c r="E18" s="14"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="19"/>
       <c r="E19" s="14"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="19"/>
       <c r="E20" s="14"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="19"/>
       <c r="E21" s="14"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="19"/>
       <c r="E22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="19"/>
       <c r="E23" s="14"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="19"/>
       <c r="E24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="19"/>
       <c r="E25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="19"/>
       <c r="E26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="19"/>
       <c r="E27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="19"/>
       <c r="E28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="19"/>
       <c r="E29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="19"/>
       <c r="E30" s="14"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="19"/>
       <c r="E31" s="14"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -2138,20 +2138,20 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.08203125" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="86.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="31.625" customWidth="1"/>
+    <col min="3" max="3" width="86.125" style="4" customWidth="1"/>
     <col min="4" max="4" width="93" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1748,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -2174,118 +2174,118 @@
         <v>238</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1748,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B3" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1748,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B4" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1748,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B5" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1748,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B6" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1748,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B7" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1748,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B8" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1748,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B9" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1748,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B10" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1748,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B11" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1748,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -2294,220 +2294,220 @@
         <v>233</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1748,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B13" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1748,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B14" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1748,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B15" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1748,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B16" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1748,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B17" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="13"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="15"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="16"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="16"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="15"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="15"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="15"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="13"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="15"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="15"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="18"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="15"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="15"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="15"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="15"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="15"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="15"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="15"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="13"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="15"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="15"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="15"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="15"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="15"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="15"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="15"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="13"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="13"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="15"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="13"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="15"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="15"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="13"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="13"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="15"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="13"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="15"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="15"/>
     </row>
   </sheetData>
@@ -2531,13 +2531,13 @@
       <selection activeCell="A2" sqref="A2:A187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="54.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="54.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>165</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>179</v>
       </c>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>175</v>
       </c>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>174</v>
       </c>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>189</v>
       </c>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>168</v>
       </c>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>167</v>
       </c>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>178</v>
       </c>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>166</v>
       </c>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>177</v>
       </c>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>172</v>
       </c>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>173</v>
       </c>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>171</v>
       </c>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>170</v>
       </c>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>169</v>
       </c>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>176</v>
       </c>
@@ -2692,14 +2692,14 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>180</v>
       </c>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>232</v>
       </c>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>182</v>
       </c>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>184</v>
       </c>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>183</v>
       </c>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>181</v>
       </c>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>192</v>
       </c>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>186</v>
       </c>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>187</v>
       </c>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>4</v>
       </c>
@@ -2789,13 +2789,13 @@
       </c>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>193</v>
       </c>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>191</v>
       </c>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>188</v>
       </c>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>185</v>
       </c>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>190</v>
       </c>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
         <v>231</v>
       </c>
@@ -2858,907 +2858,907 @@
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>51</v>
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>53</v>
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>54</v>
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>55</v>
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>56</v>
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>58</v>
       </c>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="8"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>59</v>
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>60</v>
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>61</v>
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>62</v>
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>63</v>
       </c>
       <c r="D53" s="8"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>64</v>
       </c>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>65</v>
       </c>
       <c r="D55" s="8"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>203</v>
       </c>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>66</v>
       </c>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>67</v>
       </c>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>68</v>
       </c>
       <c r="D60" s="8"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="8"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>69</v>
       </c>
       <c r="D62" s="8"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>6</v>
       </c>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>70</v>
       </c>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>71</v>
       </c>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>72</v>
       </c>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>73</v>
       </c>
       <c r="D67" s="8"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>74</v>
       </c>
       <c r="D68" s="8"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>75</v>
       </c>
       <c r="D69" s="8"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>76</v>
       </c>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>77</v>
       </c>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>78</v>
       </c>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="8"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>79</v>
       </c>
       <c r="D75" s="8"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>80</v>
       </c>
       <c r="D76" s="8"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>81</v>
       </c>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>82</v>
       </c>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>83</v>
       </c>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>84</v>
       </c>
       <c r="D81" s="8"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>85</v>
       </c>
       <c r="D82" s="8"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>86</v>
       </c>
       <c r="D83" s="8"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>87</v>
       </c>
       <c r="D84" s="8"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>88</v>
       </c>
       <c r="D85" s="8"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>89</v>
       </c>
       <c r="D86" s="8"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>90</v>
       </c>
       <c r="D87" s="8"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>91</v>
       </c>
       <c r="D88" s="8"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>92</v>
       </c>
       <c r="D89" s="8"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="8"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>94</v>
       </c>
       <c r="D91" s="8"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>95</v>
       </c>
       <c r="D92" s="8"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>96</v>
       </c>
       <c r="D93" s="8"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>97</v>
       </c>
       <c r="D94" s="8"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>98</v>
       </c>
       <c r="D95" s="8"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>99</v>
       </c>
       <c r="D96" s="8"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>100</v>
       </c>
       <c r="D97" s="8"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>101</v>
       </c>
       <c r="D98" s="8"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>102</v>
       </c>
       <c r="D99" s="8"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>103</v>
       </c>
       <c r="D100" s="8"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>104</v>
       </c>
       <c r="D101" s="8"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>105</v>
       </c>
       <c r="D102" s="8"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>204</v>
       </c>
       <c r="D103" s="8"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>205</v>
       </c>
       <c r="D104" s="8"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="8"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>206</v>
       </c>
       <c r="D106" s="8"/>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>207</v>
       </c>
       <c r="D107" s="8"/>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>208</v>
       </c>
       <c r="D108" s="8"/>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>106</v>
       </c>
       <c r="D109" s="8"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>107</v>
       </c>
       <c r="D110" s="8"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>108</v>
       </c>
       <c r="D111" s="8"/>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>109</v>
       </c>
       <c r="D112" s="8"/>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>110</v>
       </c>
       <c r="D113" s="8"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>111</v>
       </c>
       <c r="D114" s="8"/>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>112</v>
       </c>
       <c r="D115" s="8"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>113</v>
       </c>
       <c r="D116" s="8"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>114</v>
       </c>
       <c r="D117" s="8"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>115</v>
       </c>
       <c r="D118" s="8"/>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>116</v>
       </c>
       <c r="D119" s="8"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>117</v>
       </c>
       <c r="D120" s="8"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>11</v>
       </c>
       <c r="D121" s="8"/>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>118</v>
       </c>
       <c r="D122" s="8"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>119</v>
       </c>
       <c r="D123" s="8"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>120</v>
       </c>
       <c r="D124" s="8"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>121</v>
       </c>
       <c r="D125" s="8"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
         <v>122</v>
       </c>
       <c r="D126" s="8"/>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
         <v>3</v>
       </c>
       <c r="D127" s="8"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>197</v>
       </c>
       <c r="D128" s="8"/>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>123</v>
       </c>
       <c r="D129" s="8"/>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
         <v>124</v>
       </c>
       <c r="D130" s="8"/>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>125</v>
       </c>
       <c r="D131" s="8"/>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>209</v>
       </c>
       <c r="D132" s="8"/>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
         <v>126</v>
       </c>
       <c r="D133" s="8"/>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>127</v>
       </c>
       <c r="D134" s="8"/>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>128</v>
       </c>
       <c r="D135" s="8"/>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>129</v>
       </c>
       <c r="D136" s="8"/>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
         <v>130</v>
       </c>
       <c r="D137" s="8"/>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
         <v>131</v>
       </c>
       <c r="D138" s="8"/>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
         <v>132</v>
       </c>
       <c r="D139" s="8"/>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
         <v>133</v>
       </c>
       <c r="D140" s="8"/>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
         <v>134</v>
       </c>
       <c r="D141" s="8"/>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
         <v>210</v>
       </c>
       <c r="D142" s="8"/>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>135</v>
       </c>
       <c r="D143" s="8"/>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
         <v>136</v>
       </c>
       <c r="D144" s="8"/>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
         <v>222</v>
       </c>
       <c r="D145" s="8"/>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
         <v>137</v>
       </c>
       <c r="D146" s="8"/>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
         <v>138</v>
       </c>
       <c r="D147" s="8"/>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>139</v>
       </c>
       <c r="D148" s="8"/>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
         <v>140</v>
       </c>
       <c r="D149" s="8"/>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>141</v>
       </c>
       <c r="D150" s="8"/>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
         <v>142</v>
       </c>
       <c r="D151" s="8"/>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>143</v>
       </c>
       <c r="D152" s="8"/>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
         <v>144</v>
       </c>
       <c r="D153" s="8"/>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
         <v>145</v>
       </c>
       <c r="D154" s="8"/>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>146</v>
       </c>
       <c r="D155" s="8"/>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
         <v>147</v>
       </c>
       <c r="D156" s="8"/>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
         <v>148</v>
       </c>
       <c r="D157" s="8"/>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
         <v>149</v>
       </c>
       <c r="D158" s="8"/>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
         <v>150</v>
       </c>
       <c r="D159" s="8"/>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
         <v>151</v>
       </c>
       <c r="D160" s="8"/>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
         <v>22</v>
       </c>
       <c r="D161" s="8"/>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
         <v>211</v>
       </c>
       <c r="D162" s="8"/>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
         <v>25</v>
       </c>
       <c r="D163" s="8"/>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
         <v>21</v>
       </c>
       <c r="D164" s="8"/>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
         <v>152</v>
       </c>
       <c r="D165" s="8"/>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
         <v>153</v>
       </c>
       <c r="D166" s="8"/>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
         <v>154</v>
       </c>
       <c r="D167" s="8"/>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
         <v>220</v>
       </c>
       <c r="D168" s="8"/>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
         <v>212</v>
       </c>
       <c r="D169" s="8"/>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
         <v>155</v>
       </c>
       <c r="D170" s="8"/>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
         <v>156</v>
       </c>
       <c r="D171" s="8"/>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C172" t="s">
         <v>157</v>
       </c>
       <c r="D172" s="8"/>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
         <v>158</v>
       </c>
       <c r="D173" s="8"/>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
         <v>159</v>
       </c>
       <c r="D174" s="8"/>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
         <v>160</v>
       </c>
       <c r="D175" s="8"/>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
         <v>161</v>
       </c>
       <c r="D176" s="8"/>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
         <v>162</v>
       </c>
       <c r="D177" s="8"/>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
         <v>213</v>
       </c>
       <c r="D178" s="8"/>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
         <v>214</v>
       </c>
       <c r="D179" s="8"/>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
         <v>215</v>
       </c>
       <c r="D180" s="8"/>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
         <v>216</v>
       </c>
       <c r="D181" s="8"/>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
         <v>217</v>
       </c>
       <c r="D182" s="8"/>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
         <v>218</v>
       </c>
       <c r="D183" s="8"/>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
         <v>219</v>
       </c>
       <c r="D184" s="8"/>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="8"/>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
         <v>163</v>
       </c>
       <c r="D186" s="9"/>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
         <v>164</v>
       </c>

--- a/Codelist Excel Files and Conversion Templates to XML/boreholePurpose.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/boreholePurpose.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Draft Excel Codelists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47791B7-3C91-9442-84E4-16EC7C6204DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F42229-42DE-0244-9A66-65C92059D1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1319,7 +1319,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1356,9 +1356,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1957,8 +1954,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3005,7 +3002,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="str">
+      <c r="A46" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B2811,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
